--- a/reports/vivado/OperationChaining6nsSolution/power/OperationChaining6nsDSPPowerReport.xlsx
+++ b/reports/vivado/OperationChaining6nsSolution/power/OperationChaining6nsDSPPowerReport.xlsx
@@ -44,19 +44,19 @@
     <t/>
   </si>
   <si>
+    <t>buff1_reg (DSP48E1)</t>
+  </si>
+  <si>
+    <t>ap_clk_IBUF_BUFG</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>buff2_reg__0 (DSP48E1)</t>
-  </si>
-  <si>
-    <t>ap_clk_IBUF</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>buff1_reg (DSP48E1)</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>0.0015489605721086264</v>
+        <v>2.449857711326331E-4</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>7.720882422290742E-4</v>
+        <v>1.1746238305931911E-4</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
@@ -219,15 +219,15 @@
         <v>13</v>
       </c>
       <c r="H3" t="n" s="2">
-        <v>38.2942008972168</v>
+        <v>5.282081127166748</v>
       </c>
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>5.292222485877573E-4</v>
+        <v>1.0035662853624672E-4</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>166.6666717529297</v>
@@ -245,12 +245,12 @@
         <v>13</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>26.57451820373535</v>
+        <v>4.465609073638916</v>
       </c>
     </row>
     <row r="5" outlineLevel="1">
       <c r="A5" t="n" s="5">
-        <v>1.9344624888617545E-4</v>
+        <v>1.8320855815545656E-5</v>
       </c>
       <c r="B5" t="s" s="4">
         <v>14</v>
@@ -271,15 +271,15 @@
         <v>13</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>9.131349563598633</v>
+        <v>0.857142984867096</v>
       </c>
     </row>
     <row r="6" outlineLevel="1">
       <c r="A6" t="n" s="5">
-        <v>5.420385787147097E-5</v>
+        <v>8.84591463545803E-6</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>166.6666717529297</v>
@@ -297,7 +297,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>2.7115750312805176</v>
+        <v>0.42838001251220703</v>
       </c>
     </row>
   </sheetData>
